--- a/content/docs/simple_financial_model.xlsx
+++ b/content/docs/simple_financial_model.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pitosalas/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22940" yWindow="3460" windowWidth="25600" windowHeight="18380" tabRatio="293"/>
+    <workbookView xWindow="1700" yWindow="2780" windowWidth="35220" windowHeight="18380" tabRatio="293"/>
   </bookViews>
   <sheets>
     <sheet name="Model &quot;Paid Engine&quot;" sheetId="1" r:id="rId1"/>
     <sheet name="Model &quot;Sticky Engine" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>Customers</t>
   </si>
@@ -34,9 +39,6 @@
     <t>July</t>
   </si>
   <si>
-    <t>Product Unit Price</t>
-  </si>
-  <si>
     <t>Total Customers</t>
   </si>
   <si>
@@ -166,22 +168,46 @@
     <t>Checking Account</t>
   </si>
   <si>
-    <t>New customers each month</t>
+    <t>Product monthly subscription</t>
+  </si>
+  <si>
+    <t>Monthly % growth</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,16 +257,48 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -248,248 +306,275 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="107"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="106"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="107" applyFont="1"/>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="107" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="108">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="107" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -508,7 +593,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.395550998410581"/>
+          <c:y val="0.0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -541,76 +633,76 @@
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>21700.0</c:v>
+                  <c:v>45328.33333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18900.0</c:v>
+                  <c:v>40904.16666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16300.0</c:v>
+                  <c:v>36851.25000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13900.0</c:v>
+                  <c:v>33243.83333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11700.0</c:v>
+                  <c:v>26093.45000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9700.0</c:v>
+                  <c:v>19597.95166666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7900.0</c:v>
+                  <c:v>13953.80383333335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6300.0</c:v>
+                  <c:v>9416.411650000013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4900.0</c:v>
+                  <c:v>6317.80181166668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3700.0</c:v>
+                  <c:v>4466.136672333347</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2700.0</c:v>
+                  <c:v>-55.86149486664999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1900.0</c:v>
+                  <c:v>-3680.059478786648</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>-6316.677261098643</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>900.0</c:v>
+                  <c:v>-8410.125932526236</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>700.0</c:v>
+                  <c:v>-9933.24703752521</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>700.0</c:v>
+                  <c:v>-10857.52419777413</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>900.0</c:v>
+                  <c:v>-11153.0152160355</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1300.0</c:v>
+                  <c:v>-10788.28078520994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>-9730.309632843091</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2700.0</c:v>
+                  <c:v>-7944.439922857904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3700.0</c:v>
+                  <c:v>-5394.276727373457</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4900.0</c:v>
+                  <c:v>-2041.605372114787</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6300.0</c:v>
+                  <c:v>2153.699550906818</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7900.0</c:v>
+                  <c:v>7233.769720079504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -625,13 +717,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2123309928"/>
-        <c:axId val="-2114175496"/>
+        <c:axId val="2108560224"/>
+        <c:axId val="-2129986192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2123309928"/>
+        <c:axId val="2108560224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -640,7 +731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114175496"/>
+        <c:crossAx val="-2129986192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -648,7 +739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114175496"/>
+        <c:axId val="-2129986192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,7 +750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123309928"/>
+        <c:crossAx val="2108560224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -677,218 +768,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Monthly	</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Profit (Loss)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Model "Paid Engine"'!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Profit (Loss)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Model "Paid Engine"'!$B$9:$Y$9</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>-3300.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2800.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2600.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2400.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2200.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1800.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1600.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1400.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1200.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1000.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-800.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-600.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-400.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-200.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1200.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1400.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1600.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines/>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2115803336"/>
-        <c:axId val="-2115799688"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2115803336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115799688"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2115799688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115803336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1030,13 +909,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2122305336"/>
-        <c:axId val="-2118701752"/>
+        <c:axId val="-2129928608"/>
+        <c:axId val="-2129925776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2122305336"/>
+        <c:axId val="-2129928608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,7 +923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118701752"/>
+        <c:crossAx val="-2129925776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1053,7 +931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2118701752"/>
+        <c:axId val="-2129925776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300000.0"/>
@@ -1065,7 +943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122305336"/>
+        <c:crossAx val="-2129928608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1082,7 +960,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1214,13 +1092,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2117364280"/>
-        <c:axId val="-2118833160"/>
+        <c:axId val="-2129894992"/>
+        <c:axId val="-2129771600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2117364280"/>
+        <c:axId val="-2129894992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,7 +1106,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118833160"/>
+        <c:crossAx val="-2129771600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1237,7 +1114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2118833160"/>
+        <c:axId val="-2129771600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100000.0"/>
@@ -1249,7 +1126,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117364280"/>
+        <c:crossAx val="-2129894992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1270,16 +1147,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>977900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1293,36 +1170,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1718,955 +1565,940 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" style="15" customWidth="1"/>
+    <col min="2" max="25" width="10" style="15" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21">
-      <c r="A1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16">
+        <v>100</v>
+      </c>
+      <c r="C3" s="16">
+        <f>B3*(1+B4)</f>
+        <v>150</v>
+      </c>
+      <c r="D3" s="16">
+        <f t="shared" ref="D3:Y3" si="0">C3*(1+C4)</f>
+        <v>225</v>
+      </c>
+      <c r="E3" s="16">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="F3" s="16">
+        <f t="shared" si="0"/>
+        <v>441</v>
+      </c>
+      <c r="G3" s="16">
+        <f t="shared" si="0"/>
+        <v>573.30000000000007</v>
+      </c>
+      <c r="H3" s="16">
+        <f t="shared" si="0"/>
+        <v>745.29000000000008</v>
+      </c>
+      <c r="I3" s="16">
+        <f t="shared" si="0"/>
+        <v>968.87700000000018</v>
+      </c>
+      <c r="J3" s="16">
+        <f t="shared" si="0"/>
+        <v>1259.5401000000002</v>
+      </c>
+      <c r="K3" s="16">
+        <f t="shared" si="0"/>
+        <v>1511.4481200000002</v>
+      </c>
+      <c r="L3" s="16">
+        <f t="shared" si="0"/>
+        <v>1813.7377440000002</v>
+      </c>
+      <c r="M3" s="23">
+        <f t="shared" si="0"/>
+        <v>1995.1115184000005</v>
+      </c>
+      <c r="N3" s="16">
+        <f t="shared" si="0"/>
+        <v>2194.6226702400008</v>
+      </c>
+      <c r="O3" s="16">
+        <f t="shared" si="0"/>
+        <v>2304.3538037520011</v>
+      </c>
+      <c r="P3" s="16">
+        <f t="shared" si="0"/>
+        <v>2419.5714939396012</v>
+      </c>
+      <c r="Q3" s="16">
+        <f t="shared" si="0"/>
+        <v>2540.5500686365813</v>
+      </c>
+      <c r="R3" s="16">
+        <f t="shared" si="0"/>
+        <v>2667.5775720684105</v>
+      </c>
+      <c r="S3" s="16">
+        <f t="shared" si="0"/>
+        <v>2800.9564506718311</v>
+      </c>
+      <c r="T3" s="16">
+        <f t="shared" si="0"/>
+        <v>2941.004273205423</v>
+      </c>
+      <c r="U3" s="16">
+        <f t="shared" si="0"/>
+        <v>3088.0544868656943</v>
+      </c>
+      <c r="V3" s="16">
+        <f t="shared" si="0"/>
+        <v>3242.4572112089791</v>
+      </c>
+      <c r="W3" s="16">
+        <f t="shared" si="0"/>
+        <v>3404.5800717694283</v>
+      </c>
+      <c r="X3" s="16">
+        <f t="shared" si="0"/>
+        <v>3574.8090753578999</v>
+      </c>
+      <c r="Y3" s="23">
+        <f t="shared" si="0"/>
+        <v>3753.5495291257953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="L4" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="O4" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="P4" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="R4" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="S4" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="T4" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="U4" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="V4" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="W4" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="X4" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="Y4" s="24">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="18">
+        <f>B3*$D$16</f>
+        <v>495</v>
+      </c>
+      <c r="C5" s="18">
+        <f>C3*$D$16</f>
+        <v>742.5</v>
+      </c>
+      <c r="D5" s="18">
+        <f>D3*$D$16</f>
+        <v>1113.75</v>
+      </c>
+      <c r="E5" s="18">
+        <f>E3*$D$16</f>
+        <v>1559.25</v>
+      </c>
+      <c r="F5" s="18">
+        <f>F3*$D$16</f>
+        <v>2182.9500000000003</v>
+      </c>
+      <c r="G5" s="18">
+        <f>G3*$D$16</f>
+        <v>2837.8350000000005</v>
+      </c>
+      <c r="H5" s="18">
+        <f>H3*$D$16</f>
+        <v>3689.1855000000005</v>
+      </c>
+      <c r="I5" s="18">
+        <f>I3*$D$16</f>
+        <v>4795.9411500000015</v>
+      </c>
+      <c r="J5" s="18">
+        <f>J3*$D$16</f>
+        <v>6234.7234950000011</v>
+      </c>
+      <c r="K5" s="18">
+        <f>K3*$D$16</f>
+        <v>7481.6681940000017</v>
+      </c>
+      <c r="L5" s="18">
+        <f>L3*$D$16</f>
+        <v>8978.0018328000024</v>
+      </c>
+      <c r="M5" s="25">
+        <f>M3*$D$16</f>
+        <v>9875.8020160800024</v>
+      </c>
+      <c r="N5" s="18">
+        <f>N3*$D$16</f>
+        <v>10863.382217688004</v>
+      </c>
+      <c r="O5" s="18">
+        <f>O3*$D$16</f>
+        <v>11406.551328572406</v>
+      </c>
+      <c r="P5" s="18">
+        <f>P3*$D$16</f>
+        <v>11976.878895001026</v>
+      </c>
+      <c r="Q5" s="18">
+        <f>Q3*$D$16</f>
+        <v>12575.722839751077</v>
+      </c>
+      <c r="R5" s="18">
+        <f>R3*$D$16</f>
+        <v>13204.508981738632</v>
+      </c>
+      <c r="S5" s="18">
+        <f>S3*$D$16</f>
+        <v>13864.734430825565</v>
+      </c>
+      <c r="T5" s="18">
+        <f>T3*$D$16</f>
+        <v>14557.971152366845</v>
+      </c>
+      <c r="U5" s="18">
+        <f>U3*$D$16</f>
+        <v>15285.869709985187</v>
+      </c>
+      <c r="V5" s="18">
+        <f>V3*$D$16</f>
+        <v>16050.163195484447</v>
+      </c>
+      <c r="W5" s="18">
+        <f>W3*$D$16</f>
+        <v>16852.67135525867</v>
+      </c>
+      <c r="X5" s="18">
+        <f>X3*$D$16</f>
+        <v>17695.304923021606</v>
+      </c>
+      <c r="Y5" s="25">
+        <f>Y3*$D$16</f>
+        <v>18580.070169172686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>2</v>
+      </c>
+      <c r="G6" s="15">
+        <v>2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>2</v>
+      </c>
+      <c r="I6" s="15">
+        <v>2</v>
+      </c>
+      <c r="J6" s="15">
+        <v>2</v>
+      </c>
+      <c r="K6" s="15">
+        <v>2</v>
+      </c>
+      <c r="L6" s="15">
+        <v>3</v>
+      </c>
+      <c r="M6" s="22">
+        <v>3</v>
+      </c>
+      <c r="N6" s="15">
+        <v>3</v>
+      </c>
+      <c r="O6" s="15">
+        <v>3</v>
+      </c>
+      <c r="P6" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>3</v>
+      </c>
+      <c r="R6" s="15">
+        <v>3</v>
+      </c>
+      <c r="S6" s="15">
+        <v>3</v>
+      </c>
+      <c r="T6" s="15">
+        <v>3</v>
+      </c>
+      <c r="U6" s="15">
+        <v>3</v>
+      </c>
+      <c r="V6" s="15">
+        <v>3</v>
+      </c>
+      <c r="W6" s="15">
+        <v>3</v>
+      </c>
+      <c r="X6" s="15">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18">
+        <f>B6*$D$18</f>
+        <v>4166.666666666667</v>
+      </c>
+      <c r="C7" s="18">
+        <f>C6*$D$18</f>
+        <v>4166.666666666667</v>
+      </c>
+      <c r="D7" s="18">
+        <f>D6*$D$18</f>
+        <v>4166.666666666667</v>
+      </c>
+      <c r="E7" s="18">
+        <f>E6*$D$18</f>
+        <v>4166.666666666667</v>
+      </c>
+      <c r="F7" s="18">
+        <f>F6*$D$18</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="G7" s="18">
+        <f>G6*$D$18</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="H7" s="18">
+        <f>H6*$D$18</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="I7" s="18">
+        <f>I6*$D$18</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="J7" s="18">
+        <f>J6*$D$18</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="K7" s="18">
+        <f>K6*$D$18</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="L7" s="18">
+        <f>L6*$D$18</f>
+        <v>12500</v>
+      </c>
+      <c r="M7" s="25">
+        <f>M6*$D$18</f>
+        <v>12500</v>
+      </c>
+      <c r="N7" s="18">
+        <f>N6*$D$18</f>
+        <v>12500</v>
+      </c>
+      <c r="O7" s="18">
+        <f>O6*$D$18</f>
+        <v>12500</v>
+      </c>
+      <c r="P7" s="18">
+        <f>P6*$D$18</f>
+        <v>12500</v>
+      </c>
+      <c r="Q7" s="18">
+        <f>Q6*$D$18</f>
+        <v>12500</v>
+      </c>
+      <c r="R7" s="18">
+        <f>R6*$D$18</f>
+        <v>12500</v>
+      </c>
+      <c r="S7" s="18">
+        <f>S6*$D$18</f>
+        <v>12500</v>
+      </c>
+      <c r="T7" s="18">
+        <f>T6*$D$18</f>
+        <v>12500</v>
+      </c>
+      <c r="U7" s="18">
+        <f>U6*$D$18</f>
+        <v>12500</v>
+      </c>
+      <c r="V7" s="18">
+        <f>V6*$D$18</f>
+        <v>12500</v>
+      </c>
+      <c r="W7" s="18">
+        <f>W6*$D$18</f>
+        <v>12500</v>
+      </c>
+      <c r="X7" s="18">
+        <f>X6*$D$18</f>
+        <v>12500</v>
+      </c>
+      <c r="Y7" s="25">
+        <f>Y6*$D$18</f>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="18">
+        <f>B7+$D$19</f>
+        <v>5166.666666666667</v>
+      </c>
+      <c r="C8" s="18">
+        <f>C7+$D$19</f>
+        <v>5166.666666666667</v>
+      </c>
+      <c r="D8" s="18">
+        <f>D7+$D$19</f>
+        <v>5166.666666666667</v>
+      </c>
+      <c r="E8" s="18">
+        <f>E7+$D$19</f>
+        <v>5166.666666666667</v>
+      </c>
+      <c r="F8" s="18">
+        <f>F7+$D$19</f>
+        <v>9333.3333333333339</v>
+      </c>
+      <c r="G8" s="18">
+        <f>G7+$D$19</f>
+        <v>9333.3333333333339</v>
+      </c>
+      <c r="H8" s="18">
+        <f>H7+$D$19</f>
+        <v>9333.3333333333339</v>
+      </c>
+      <c r="I8" s="18">
+        <f>I7+$D$19</f>
+        <v>9333.3333333333339</v>
+      </c>
+      <c r="J8" s="18">
+        <f>J7+$D$19</f>
+        <v>9333.3333333333339</v>
+      </c>
+      <c r="K8" s="18">
+        <f>K7+$D$19</f>
+        <v>9333.3333333333339</v>
+      </c>
+      <c r="L8" s="18">
+        <f>L7+$D$19</f>
+        <v>13500</v>
+      </c>
+      <c r="M8" s="25">
+        <f>M7+$D$19</f>
+        <v>13500</v>
+      </c>
+      <c r="N8" s="18">
+        <f>N7+$D$19</f>
+        <v>13500</v>
+      </c>
+      <c r="O8" s="18">
+        <f>O7+$D$19</f>
+        <v>13500</v>
+      </c>
+      <c r="P8" s="18">
+        <f>P7+$D$19</f>
+        <v>13500</v>
+      </c>
+      <c r="Q8" s="18">
+        <f>Q7+$D$19</f>
+        <v>13500</v>
+      </c>
+      <c r="R8" s="18">
+        <f>R7+$D$19</f>
+        <v>13500</v>
+      </c>
+      <c r="S8" s="18">
+        <f>S7+$D$19</f>
+        <v>13500</v>
+      </c>
+      <c r="T8" s="18">
+        <f>T7+$D$19</f>
+        <v>13500</v>
+      </c>
+      <c r="U8" s="18">
+        <f>U7+$D$19</f>
+        <v>13500</v>
+      </c>
+      <c r="V8" s="18">
+        <f>V7+$D$19</f>
+        <v>13500</v>
+      </c>
+      <c r="W8" s="18">
+        <f>W7+$D$19</f>
+        <v>13500</v>
+      </c>
+      <c r="X8" s="18">
+        <f>X7+$D$19</f>
+        <v>13500</v>
+      </c>
+      <c r="Y8" s="25">
+        <f>Y7+$D$19</f>
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="18">
+        <f>B5-B8</f>
+        <v>-4671.666666666667</v>
+      </c>
+      <c r="C9" s="18">
+        <f t="shared" ref="C9:H9" si="1">C5-C8</f>
+        <v>-4424.166666666667</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" si="1"/>
+        <v>-4052.916666666667</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" si="1"/>
+        <v>-3607.416666666667</v>
+      </c>
+      <c r="F9" s="18">
+        <f t="shared" si="1"/>
+        <v>-7150.3833333333332</v>
+      </c>
+      <c r="G9" s="18">
+        <f t="shared" si="1"/>
+        <v>-6495.498333333333</v>
+      </c>
+      <c r="H9" s="18">
+        <f t="shared" si="1"/>
+        <v>-5644.1478333333334</v>
+      </c>
+      <c r="I9" s="18">
+        <f t="shared" ref="I9" si="2">I5-I8</f>
+        <v>-4537.3921833333325</v>
+      </c>
+      <c r="J9" s="18">
+        <f t="shared" ref="J9" si="3">J5-J8</f>
+        <v>-3098.6098383333328</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" ref="K9" si="4">K5-K8</f>
+        <v>-1851.6651393333323</v>
+      </c>
+      <c r="L9" s="18">
+        <f t="shared" ref="L9" si="5">L5-L8</f>
+        <v>-4521.9981671999976</v>
+      </c>
+      <c r="M9" s="25">
+        <f t="shared" ref="M9:N9" si="6">M5-M8</f>
+        <v>-3624.1979839199976</v>
+      </c>
+      <c r="N9" s="18">
+        <f t="shared" si="6"/>
+        <v>-2636.6177823119961</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" ref="O9" si="7">O5-O8</f>
+        <v>-2093.4486714275936</v>
+      </c>
+      <c r="P9" s="18">
+        <f t="shared" ref="P9" si="8">P5-P8</f>
+        <v>-1523.1211049989743</v>
+      </c>
+      <c r="Q9" s="18">
+        <f t="shared" ref="Q9" si="9">Q5-Q8</f>
+        <v>-924.27716024892288</v>
+      </c>
+      <c r="R9" s="18">
+        <f t="shared" ref="R9" si="10">R5-R8</f>
+        <v>-295.49101826136757</v>
+      </c>
+      <c r="S9" s="18">
+        <f t="shared" ref="S9" si="11">S5-S8</f>
+        <v>364.73443082556514</v>
+      </c>
+      <c r="T9" s="18">
+        <f t="shared" ref="T9" si="12">T5-T8</f>
+        <v>1057.9711523668448</v>
+      </c>
+      <c r="U9" s="18">
+        <f t="shared" ref="U9" si="13">U5-U8</f>
+        <v>1785.869709985187</v>
+      </c>
+      <c r="V9" s="18">
+        <f t="shared" ref="V9" si="14">V5-V8</f>
+        <v>2550.163195484447</v>
+      </c>
+      <c r="W9" s="18">
+        <f t="shared" ref="W9" si="15">W5-W8</f>
+        <v>3352.6713552586698</v>
+      </c>
+      <c r="X9" s="18">
+        <f t="shared" ref="X9" si="16">X5-X8</f>
+        <v>4195.3049230216056</v>
+      </c>
+      <c r="Y9" s="25">
+        <f t="shared" ref="Y9" si="17">Y5-Y8</f>
+        <v>5080.0701691726863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="18">
+        <f>D20+B9</f>
+        <v>45328.333333333336</v>
+      </c>
+      <c r="C10" s="18">
+        <f>B10+C9</f>
+        <v>40904.166666666672</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" ref="D10:H10" si="18">C10+D9</f>
+        <v>36851.250000000007</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" si="18"/>
+        <v>33243.833333333343</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" si="18"/>
+        <v>26093.450000000012</v>
+      </c>
+      <c r="G10" s="18">
+        <f t="shared" si="18"/>
+        <v>19597.951666666679</v>
+      </c>
+      <c r="H10" s="18">
+        <f t="shared" si="18"/>
+        <v>13953.803833333346</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" ref="I10" si="19">H10+I9</f>
+        <v>9416.4116500000127</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" ref="J10" si="20">I10+J9</f>
+        <v>6317.8018116666799</v>
+      </c>
+      <c r="K10" s="18">
+        <f t="shared" ref="K10" si="21">J10+K9</f>
+        <v>4466.1366723333476</v>
+      </c>
+      <c r="L10" s="18">
+        <f t="shared" ref="L10" si="22">K10+L9</f>
+        <v>-55.861494866649991</v>
+      </c>
+      <c r="M10" s="25">
+        <f t="shared" ref="M10:N10" si="23">L10+M9</f>
+        <v>-3680.0594787866476</v>
+      </c>
+      <c r="N10" s="18">
+        <f t="shared" si="23"/>
+        <v>-6316.6772610986436</v>
+      </c>
+      <c r="O10" s="18">
+        <f>N10+O9</f>
+        <v>-8410.1259325262363</v>
+      </c>
+      <c r="P10" s="18">
+        <f t="shared" ref="P10" si="24">O10+P9</f>
+        <v>-9933.2470375252105</v>
+      </c>
+      <c r="Q10" s="18">
+        <f t="shared" ref="Q10" si="25">P10+Q9</f>
+        <v>-10857.524197774133</v>
+      </c>
+      <c r="R10" s="18">
+        <f t="shared" ref="R10" si="26">Q10+R9</f>
+        <v>-11153.015216035501</v>
+      </c>
+      <c r="S10" s="18">
+        <f t="shared" ref="S10" si="27">R10+S9</f>
+        <v>-10788.280785209936</v>
+      </c>
+      <c r="T10" s="18">
+        <f t="shared" ref="T10" si="28">S10+T9</f>
+        <v>-9730.3096328430911</v>
+      </c>
+      <c r="U10" s="18">
+        <f t="shared" ref="U10" si="29">T10+U9</f>
+        <v>-7944.4399228579041</v>
+      </c>
+      <c r="V10" s="18">
+        <f t="shared" ref="V10" si="30">U10+V9</f>
+        <v>-5394.2767273734571</v>
+      </c>
+      <c r="W10" s="18">
+        <f t="shared" ref="W10" si="31">V10+W9</f>
+        <v>-2041.6053721147873</v>
+      </c>
+      <c r="X10" s="18">
+        <f t="shared" ref="X10" si="32">W10+X9</f>
+        <v>2153.6995509068183</v>
+      </c>
+      <c r="Y10" s="25">
+        <f t="shared" ref="Y10" si="33">X10+Y9</f>
+        <v>7233.7697200795046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="19">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="5">
-        <f>$D$14</f>
-        <v>10</v>
-      </c>
-      <c r="C3" s="5">
-        <f t="shared" ref="C3:Y3" si="0">$D$14</f>
-        <v>10</v>
-      </c>
-      <c r="D3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="P3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Q3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="S3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="T3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="U3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="V3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="W3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="X3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Y3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>25</v>
-      </c>
-      <c r="C4" s="5">
-        <f>B4+B3</f>
-        <v>35</v>
-      </c>
-      <c r="D4" s="5">
-        <f t="shared" ref="D4:M4" si="1">C4+C3</f>
-        <v>45</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="M4" s="5">
-        <f t="shared" si="1"/>
-        <v>135</v>
-      </c>
-      <c r="N4" s="5">
-        <f t="shared" ref="N4" si="2">M4+M3</f>
-        <v>145</v>
-      </c>
-      <c r="O4" s="5">
-        <f>N4+N3</f>
-        <v>155</v>
-      </c>
-      <c r="P4" s="5">
-        <f t="shared" ref="P4:Y4" si="3">O4+O3</f>
-        <v>165</v>
-      </c>
-      <c r="Q4" s="5">
-        <f t="shared" si="3"/>
-        <v>175</v>
-      </c>
-      <c r="R4" s="5">
-        <f t="shared" si="3"/>
-        <v>185</v>
-      </c>
-      <c r="S4" s="5">
-        <f t="shared" si="3"/>
-        <v>195</v>
-      </c>
-      <c r="T4" s="5">
-        <f t="shared" si="3"/>
-        <v>205</v>
-      </c>
-      <c r="U4" s="5">
-        <f t="shared" si="3"/>
-        <v>215</v>
-      </c>
-      <c r="V4" s="5">
-        <f t="shared" si="3"/>
-        <v>225</v>
-      </c>
-      <c r="W4" s="5">
-        <f t="shared" si="3"/>
-        <v>235</v>
-      </c>
-      <c r="X4" s="5">
-        <f t="shared" si="3"/>
-        <v>245</v>
-      </c>
-      <c r="Y4" s="5">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="6">
-        <f>B3*$D$15</f>
-        <v>200</v>
-      </c>
-      <c r="C5" s="6">
-        <f t="shared" ref="C5:H5" si="4">C4*$D$15</f>
-        <v>700</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="4"/>
-        <v>900</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="4"/>
-        <v>1100</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="4"/>
-        <v>1300</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="4"/>
-        <v>1500</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" si="4"/>
-        <v>1700</v>
-      </c>
-      <c r="I5" s="6">
-        <f t="shared" ref="I5:M5" si="5">I4*$D$15</f>
-        <v>1900</v>
-      </c>
-      <c r="J5" s="6">
-        <f t="shared" si="5"/>
-        <v>2100</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" si="5"/>
-        <v>2300</v>
-      </c>
-      <c r="L5" s="6">
-        <f t="shared" si="5"/>
-        <v>2500</v>
-      </c>
-      <c r="M5" s="6">
-        <f t="shared" si="5"/>
-        <v>2700</v>
-      </c>
-      <c r="N5" s="6">
-        <f t="shared" ref="N5" si="6">N4*$D$15</f>
-        <v>2900</v>
-      </c>
-      <c r="O5" s="6">
-        <f t="shared" ref="O5:Y5" si="7">O4*$D$15</f>
-        <v>3100</v>
-      </c>
-      <c r="P5" s="6">
-        <f t="shared" si="7"/>
-        <v>3300</v>
-      </c>
-      <c r="Q5" s="6">
-        <f t="shared" si="7"/>
-        <v>3500</v>
-      </c>
-      <c r="R5" s="6">
-        <f t="shared" si="7"/>
-        <v>3700</v>
-      </c>
-      <c r="S5" s="6">
-        <f t="shared" si="7"/>
-        <v>3900</v>
-      </c>
-      <c r="T5" s="6">
-        <f t="shared" si="7"/>
-        <v>4100</v>
-      </c>
-      <c r="U5" s="6">
-        <f t="shared" si="7"/>
-        <v>4300</v>
-      </c>
-      <c r="V5" s="6">
-        <f t="shared" si="7"/>
-        <v>4500</v>
-      </c>
-      <c r="W5" s="6">
-        <f t="shared" si="7"/>
-        <v>4700</v>
-      </c>
-      <c r="X5" s="6">
-        <f t="shared" si="7"/>
-        <v>4900</v>
-      </c>
-      <c r="Y5" s="6">
-        <f t="shared" si="7"/>
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6">
-        <f>B6*$D$17</f>
-        <v>2500</v>
-      </c>
-      <c r="C7" s="6">
-        <f t="shared" ref="C7:H7" si="8">C6*$D$17</f>
-        <v>2500</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="8"/>
-        <v>2500</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="8"/>
-        <v>2500</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="8"/>
-        <v>2500</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="8"/>
-        <v>2500</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" si="8"/>
-        <v>2500</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" ref="I7" si="9">I6*$D$17</f>
-        <v>2500</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" ref="J7" si="10">J6*$D$17</f>
-        <v>2500</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" ref="K7" si="11">K6*$D$17</f>
-        <v>2500</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" ref="L7" si="12">L6*$D$17</f>
-        <v>2500</v>
-      </c>
-      <c r="M7" s="6">
-        <f t="shared" ref="M7:N7" si="13">M6*$D$17</f>
-        <v>2500</v>
-      </c>
-      <c r="N7" s="6">
-        <f t="shared" si="13"/>
-        <v>2500</v>
-      </c>
-      <c r="O7" s="6">
-        <f t="shared" ref="O7" si="14">O6*$D$17</f>
-        <v>2500</v>
-      </c>
-      <c r="P7" s="6">
-        <f t="shared" ref="P7" si="15">P6*$D$17</f>
-        <v>2500</v>
-      </c>
-      <c r="Q7" s="6">
-        <f t="shared" ref="Q7" si="16">Q6*$D$17</f>
-        <v>2500</v>
-      </c>
-      <c r="R7" s="6">
-        <f t="shared" ref="R7" si="17">R6*$D$17</f>
-        <v>2500</v>
-      </c>
-      <c r="S7" s="6">
-        <f t="shared" ref="S7" si="18">S6*$D$17</f>
-        <v>2500</v>
-      </c>
-      <c r="T7" s="6">
-        <f t="shared" ref="T7" si="19">T6*$D$17</f>
-        <v>2500</v>
-      </c>
-      <c r="U7" s="6">
-        <f t="shared" ref="U7" si="20">U6*$D$17</f>
-        <v>2500</v>
-      </c>
-      <c r="V7" s="6">
-        <f t="shared" ref="V7" si="21">V6*$D$17</f>
-        <v>2500</v>
-      </c>
-      <c r="W7" s="6">
-        <f t="shared" ref="W7" si="22">W6*$D$17</f>
-        <v>2500</v>
-      </c>
-      <c r="X7" s="6">
-        <f t="shared" ref="X7" si="23">X6*$D$17</f>
-        <v>2500</v>
-      </c>
-      <c r="Y7" s="6">
-        <f t="shared" ref="Y7" si="24">Y6*$D$17</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="D17" s="18">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="18">
+        <f>D17/12</f>
+        <v>4166.666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6">
-        <f>B7+$D$18</f>
-        <v>3500</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" ref="C8:H8" si="25">C7+$D$18</f>
-        <v>3500</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" si="25"/>
-        <v>3500</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="25"/>
-        <v>3500</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="25"/>
-        <v>3500</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="25"/>
-        <v>3500</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="25"/>
-        <v>3500</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" ref="I8:M8" si="26">I7+$D$18</f>
-        <v>3500</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="26"/>
-        <v>3500</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="26"/>
-        <v>3500</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="26"/>
-        <v>3500</v>
-      </c>
-      <c r="M8" s="6">
-        <f t="shared" si="26"/>
-        <v>3500</v>
-      </c>
-      <c r="N8" s="6">
-        <f t="shared" ref="N8" si="27">N7+$D$18</f>
-        <v>3500</v>
-      </c>
-      <c r="O8" s="6">
-        <f t="shared" ref="O8:Y8" si="28">O7+$D$18</f>
-        <v>3500</v>
-      </c>
-      <c r="P8" s="6">
-        <f t="shared" si="28"/>
-        <v>3500</v>
-      </c>
-      <c r="Q8" s="6">
-        <f t="shared" si="28"/>
-        <v>3500</v>
-      </c>
-      <c r="R8" s="6">
-        <f t="shared" si="28"/>
-        <v>3500</v>
-      </c>
-      <c r="S8" s="6">
-        <f t="shared" si="28"/>
-        <v>3500</v>
-      </c>
-      <c r="T8" s="6">
-        <f t="shared" si="28"/>
-        <v>3500</v>
-      </c>
-      <c r="U8" s="6">
-        <f t="shared" si="28"/>
-        <v>3500</v>
-      </c>
-      <c r="V8" s="6">
-        <f t="shared" si="28"/>
-        <v>3500</v>
-      </c>
-      <c r="W8" s="6">
-        <f t="shared" si="28"/>
-        <v>3500</v>
-      </c>
-      <c r="X8" s="6">
-        <f t="shared" si="28"/>
-        <v>3500</v>
-      </c>
-      <c r="Y8" s="6">
-        <f t="shared" si="28"/>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="D19" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6">
-        <f>B5-B8</f>
-        <v>-3300</v>
-      </c>
-      <c r="C9" s="6">
-        <f t="shared" ref="C9:H9" si="29">C5-C8</f>
-        <v>-2800</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="29"/>
-        <v>-2600</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="29"/>
-        <v>-2400</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="29"/>
-        <v>-2200</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="29"/>
-        <v>-2000</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="29"/>
-        <v>-1800</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" ref="I9" si="30">I5-I8</f>
-        <v>-1600</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" ref="J9" si="31">J5-J8</f>
-        <v>-1400</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" ref="K9" si="32">K5-K8</f>
-        <v>-1200</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" ref="L9" si="33">L5-L8</f>
-        <v>-1000</v>
-      </c>
-      <c r="M9" s="6">
-        <f t="shared" ref="M9:N9" si="34">M5-M8</f>
-        <v>-800</v>
-      </c>
-      <c r="N9" s="6">
-        <f t="shared" si="34"/>
-        <v>-600</v>
-      </c>
-      <c r="O9" s="6">
-        <f t="shared" ref="O9" si="35">O5-O8</f>
-        <v>-400</v>
-      </c>
-      <c r="P9" s="6">
-        <f t="shared" ref="P9" si="36">P5-P8</f>
-        <v>-200</v>
-      </c>
-      <c r="Q9" s="6">
-        <f t="shared" ref="Q9" si="37">Q5-Q8</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="6">
-        <f t="shared" ref="R9" si="38">R5-R8</f>
-        <v>200</v>
-      </c>
-      <c r="S9" s="6">
-        <f t="shared" ref="S9" si="39">S5-S8</f>
-        <v>400</v>
-      </c>
-      <c r="T9" s="6">
-        <f t="shared" ref="T9" si="40">T5-T8</f>
-        <v>600</v>
-      </c>
-      <c r="U9" s="6">
-        <f t="shared" ref="U9" si="41">U5-U8</f>
-        <v>800</v>
-      </c>
-      <c r="V9" s="6">
-        <f t="shared" ref="V9" si="42">V5-V8</f>
-        <v>1000</v>
-      </c>
-      <c r="W9" s="6">
-        <f t="shared" ref="W9" si="43">W5-W8</f>
-        <v>1200</v>
-      </c>
-      <c r="X9" s="6">
-        <f t="shared" ref="X9" si="44">X5-X8</f>
-        <v>1400</v>
-      </c>
-      <c r="Y9" s="6">
-        <f t="shared" ref="Y9" si="45">Y5-Y8</f>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="6">
-        <f>D19+B9</f>
-        <v>21700</v>
-      </c>
-      <c r="C10" s="6">
-        <f>B10+C9</f>
-        <v>18900</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" ref="D10:H10" si="46">C10+D9</f>
-        <v>16300</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="46"/>
-        <v>13900</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="46"/>
-        <v>11700</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="46"/>
-        <v>9700</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="46"/>
-        <v>7900</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" ref="I10" si="47">H10+I9</f>
-        <v>6300</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" ref="J10" si="48">I10+J9</f>
-        <v>4900</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" ref="K10" si="49">J10+K9</f>
-        <v>3700</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" ref="L10" si="50">K10+L9</f>
-        <v>2700</v>
-      </c>
-      <c r="M10" s="6">
-        <f t="shared" ref="M10:N10" si="51">L10+M9</f>
-        <v>1900</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" si="51"/>
-        <v>1300</v>
-      </c>
-      <c r="O10" s="6">
-        <f>N10+O9</f>
-        <v>900</v>
-      </c>
-      <c r="P10" s="6">
-        <f t="shared" ref="P10" si="52">O10+P9</f>
-        <v>700</v>
-      </c>
-      <c r="Q10" s="6">
-        <f t="shared" ref="Q10" si="53">P10+Q9</f>
-        <v>700</v>
-      </c>
-      <c r="R10" s="6">
-        <f t="shared" ref="R10" si="54">Q10+R9</f>
-        <v>900</v>
-      </c>
-      <c r="S10" s="6">
-        <f t="shared" ref="S10" si="55">R10+S9</f>
-        <v>1300</v>
-      </c>
-      <c r="T10" s="6">
-        <f t="shared" ref="T10" si="56">S10+T9</f>
-        <v>1900</v>
-      </c>
-      <c r="U10" s="6">
-        <f t="shared" ref="U10" si="57">T10+U9</f>
-        <v>2700</v>
-      </c>
-      <c r="V10" s="6">
-        <f t="shared" ref="V10" si="58">U10+V9</f>
-        <v>3700</v>
-      </c>
-      <c r="W10" s="6">
-        <f t="shared" ref="W10" si="59">V10+W9</f>
-        <v>4900</v>
-      </c>
-      <c r="X10" s="6">
-        <f t="shared" ref="X10" si="60">W10+X9</f>
-        <v>6300</v>
-      </c>
-      <c r="Y10" s="6">
-        <f t="shared" ref="Y10" si="61">X10+Y9</f>
-        <v>7900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="25">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="6">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="D20" s="18">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="6">
-        <f>D16/12</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="6">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="25">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
+    </row>
+    <row r="23" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2678,15 +2510,15 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.125" customWidth="1"/>
-    <col min="2" max="13" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="2" max="13" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21">
+    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2697,21 +2529,21 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="14" t="s">
-        <v>46</v>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -2723,31 +2555,31 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>21</v>
       </c>
       <c r="R2" t="s">
         <v>1</v>
@@ -2759,59 +2591,59 @@
         <v>3</v>
       </c>
       <c r="U2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" t="s">
         <v>13</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>14</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>15</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="8">
+        <v>30</v>
+      </c>
+      <c r="B4" s="7">
         <v>0.1</v>
       </c>
       <c r="C4" s="2">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>0.09</v>
       </c>
       <c r="E4" s="2">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>0.08</v>
       </c>
       <c r="G4" s="2">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I4" s="2">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>0.06</v>
       </c>
       <c r="K4" s="2">
         <v>5.5E-2</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>0.05</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>0.05</v>
       </c>
       <c r="N4" s="2">
@@ -2820,40 +2652,40 @@
       <c r="O4" s="2">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <v>0.09</v>
       </c>
       <c r="Q4" s="2">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="7">
         <v>0.08</v>
       </c>
       <c r="S4" s="2">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="U4" s="2">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="7">
         <v>0.06</v>
       </c>
       <c r="W4" s="2">
         <v>5.5E-2</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="7">
         <v>0.05</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="7">
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <f>1/B4</f>
@@ -2952,922 +2784,922 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
       </c>
       <c r="C7" s="5">
-        <f>B10</f>
+        <f t="shared" ref="C7:H7" si="21">B10</f>
         <v>140</v>
       </c>
       <c r="D7" s="5">
-        <f>C10</f>
+        <f t="shared" si="21"/>
         <v>277.90000000000003</v>
       </c>
       <c r="E7" s="5">
-        <f>D10</f>
+        <f t="shared" si="21"/>
         <v>416.18500000000006</v>
       </c>
       <c r="F7" s="5">
-        <f>E10</f>
+        <f t="shared" si="21"/>
         <v>557.1689550000001</v>
       </c>
       <c r="G7" s="5">
-        <f>F10</f>
+        <f t="shared" si="21"/>
         <v>703.06389300000012</v>
       </c>
       <c r="H7" s="5">
-        <f>G10</f>
+        <f t="shared" si="21"/>
         <v>856.04003177700019</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" ref="I7:M7" si="21">H10</f>
+        <f t="shared" ref="I7:M7" si="22">H10</f>
         <v>1018.2796347647702</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1192.0268561341929</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1379.6354742056051</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1583.6161709189175</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1806.6848619911621</v>
       </c>
       <c r="N7" s="5">
-        <f>M10</f>
+        <f t="shared" ref="N7:T7" si="23">M10</f>
         <v>2042.7800784792496</v>
       </c>
       <c r="O7" s="5">
-        <f>N10</f>
+        <f t="shared" si="23"/>
         <v>2201.259787378378</v>
       </c>
       <c r="P7" s="5">
-        <f>O10</f>
+        <f t="shared" si="23"/>
         <v>2372.8874292404616</v>
       </c>
       <c r="Q7" s="5">
-        <f>P10</f>
+        <f t="shared" si="23"/>
         <v>2570.5346680048924</v>
       </c>
       <c r="R7" s="5">
-        <f>Q10</f>
+        <f t="shared" si="23"/>
         <v>2796.1428972122344</v>
       </c>
       <c r="S7" s="5">
-        <f>R10</f>
+        <f t="shared" si="23"/>
         <v>3052.0834355020343</v>
       </c>
       <c r="T7" s="5">
-        <f>S10</f>
+        <f t="shared" si="23"/>
         <v>3341.179705511503</v>
       </c>
       <c r="U7" s="5">
-        <f t="shared" ref="U7:Y7" si="22">T10</f>
+        <f t="shared" ref="U7:Y7" si="24">T10</f>
         <v>3666.7398560115889</v>
       </c>
       <c r="V7" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4032.5999136475975</v>
       </c>
       <c r="W7" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4443.1779189676445</v>
       </c>
       <c r="X7" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4903.5398535744398</v>
       </c>
       <c r="Y7" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5419.4785186577346</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" s="5">
-        <f>-B10*C4</f>
+        <f t="shared" ref="C8:H8" si="25">-B10*C4</f>
         <v>-13.3</v>
       </c>
       <c r="D8" s="5">
-        <f>-C10*D4</f>
+        <f t="shared" si="25"/>
         <v>-25.011000000000003</v>
       </c>
       <c r="E8" s="5">
-        <f>-D10*E4</f>
+        <f t="shared" si="25"/>
         <v>-35.37572500000001</v>
       </c>
       <c r="F8" s="5">
-        <f>-E10*F4</f>
+        <f t="shared" si="25"/>
         <v>-44.57351640000001</v>
       </c>
       <c r="G8" s="5">
-        <f>-F10*G4</f>
+        <f t="shared" si="25"/>
         <v>-52.729791975000005</v>
       </c>
       <c r="H8" s="5">
-        <f>-G10*H4</f>
+        <f t="shared" si="25"/>
         <v>-59.922802224390018</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" ref="I8:M8" si="23">-H10*I4</f>
+        <f t="shared" ref="I8:M8" si="26">-H10*I4</f>
         <v>-66.188176259710062</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-71.52161136805158</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-75.879951081308278</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-79.180808545945879</v>
       </c>
       <c r="M8" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-90.334243099558108</v>
       </c>
       <c r="N8" s="5">
-        <f>-M10*N4</f>
+        <f t="shared" ref="N8:T8" si="27">-M10*N4</f>
         <v>-194.06410745552873</v>
       </c>
       <c r="O8" s="5">
-        <f>-N10*O4</f>
+        <f t="shared" si="27"/>
         <v>-209.1196798009459</v>
       </c>
       <c r="P8" s="5">
-        <f>-O10*P4</f>
+        <f t="shared" si="27"/>
         <v>-213.55986863164154</v>
       </c>
       <c r="Q8" s="5">
-        <f>-P10*Q4</f>
+        <f t="shared" si="27"/>
         <v>-218.49544678041588</v>
       </c>
       <c r="R8" s="5">
-        <f>-Q10*R4</f>
+        <f t="shared" si="27"/>
         <v>-223.69143177697876</v>
       </c>
       <c r="S8" s="5">
-        <f>-R10*S4</f>
+        <f t="shared" si="27"/>
         <v>-228.90625766265256</v>
       </c>
       <c r="T8" s="5">
-        <f>-S10*T4</f>
+        <f t="shared" si="27"/>
         <v>-233.88257938580523</v>
       </c>
       <c r="U8" s="5">
-        <f t="shared" ref="U8:Y8" si="24">-T10*U4</f>
+        <f t="shared" ref="U8:Y8" si="28">-T10*U4</f>
         <v>-238.33809064075328</v>
       </c>
       <c r="V8" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-241.95599481885586</v>
       </c>
       <c r="W8" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-244.37478554322044</v>
       </c>
       <c r="X8" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-245.176992678722</v>
       </c>
       <c r="Y8" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-270.97392593288674</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>140</v>
       </c>
       <c r="C9" s="5">
-        <f>B9*(1+$B$30)</f>
+        <f t="shared" ref="C9:H9" si="29">B9*(1+$B$30)</f>
         <v>151.20000000000002</v>
       </c>
       <c r="D9" s="5">
-        <f>C9*(1+$B$30)</f>
+        <f t="shared" si="29"/>
         <v>163.29600000000002</v>
       </c>
       <c r="E9" s="5">
-        <f>D9*(1+$B$30)</f>
+        <f t="shared" si="29"/>
         <v>176.35968000000003</v>
       </c>
       <c r="F9" s="5">
-        <f>E9*(1+$B$30)</f>
+        <f t="shared" si="29"/>
         <v>190.46845440000004</v>
       </c>
       <c r="G9" s="5">
-        <f>F9*(1+$B$30)</f>
+        <f t="shared" si="29"/>
         <v>205.70593075200006</v>
       </c>
       <c r="H9" s="5">
-        <f>G9*(1+$B$30)</f>
+        <f t="shared" si="29"/>
         <v>222.16240521216008</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" ref="I9:M9" si="25">H9*(1+$B$30)</f>
+        <f t="shared" ref="I9:M9" si="30">H9*(1+$B$30)</f>
         <v>239.93539762913289</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>259.13022943946356</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>279.86064779462066</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>302.24949961819033</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>326.42945958764557</v>
       </c>
       <c r="N9" s="5">
-        <f>M9*(1+$B$30)</f>
+        <f t="shared" ref="N9:T9" si="31">M9*(1+$B$30)</f>
         <v>352.54381635465722</v>
       </c>
       <c r="O9" s="5">
-        <f>N9*(1+$B$30)</f>
+        <f t="shared" si="31"/>
         <v>380.74732166302982</v>
       </c>
       <c r="P9" s="5">
-        <f>O9*(1+$B$30)</f>
+        <f t="shared" si="31"/>
         <v>411.20710739607222</v>
       </c>
       <c r="Q9" s="5">
-        <f>P9*(1+$B$30)</f>
+        <f t="shared" si="31"/>
         <v>444.10367598775804</v>
       </c>
       <c r="R9" s="5">
-        <f>Q9*(1+$B$30)</f>
+        <f t="shared" si="31"/>
         <v>479.63197006677871</v>
       </c>
       <c r="S9" s="5">
-        <f>R9*(1+$B$30)</f>
+        <f t="shared" si="31"/>
         <v>518.002527672121</v>
       </c>
       <c r="T9" s="5">
-        <f>S9*(1+$B$30)</f>
+        <f t="shared" si="31"/>
         <v>559.44272988589069</v>
       </c>
       <c r="U9" s="5">
-        <f t="shared" ref="U9:Y9" si="26">T9*(1+$B$30)</f>
+        <f t="shared" ref="U9:Y9" si="32">T9*(1+$B$30)</f>
         <v>604.19814827676203</v>
       </c>
       <c r="V9" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>652.53400013890302</v>
       </c>
       <c r="W9" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>704.73672015001534</v>
       </c>
       <c r="X9" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>761.11565776201667</v>
       </c>
       <c r="Y9" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>822.0049103829781</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="5">
-        <f>SUM(B7:B9)</f>
+        <f t="shared" ref="B10:H10" si="33">SUM(B7:B9)</f>
         <v>140</v>
       </c>
       <c r="C10" s="5">
-        <f>SUM(C7:C9)</f>
+        <f t="shared" si="33"/>
         <v>277.90000000000003</v>
       </c>
       <c r="D10" s="5">
-        <f>SUM(D7:D9)</f>
+        <f t="shared" si="33"/>
         <v>416.18500000000006</v>
       </c>
       <c r="E10" s="5">
-        <f>SUM(E7:E9)</f>
+        <f t="shared" si="33"/>
         <v>557.1689550000001</v>
       </c>
       <c r="F10" s="5">
-        <f>SUM(F7:F9)</f>
+        <f t="shared" si="33"/>
         <v>703.06389300000012</v>
       </c>
       <c r="G10" s="5">
-        <f>SUM(G7:G9)</f>
+        <f t="shared" si="33"/>
         <v>856.04003177700019</v>
       </c>
       <c r="H10" s="5">
-        <f>SUM(H7:H9)</f>
+        <f t="shared" si="33"/>
         <v>1018.2796347647702</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" ref="I10:M10" si="27">SUM(I7:I9)</f>
+        <f t="shared" ref="I10:M10" si="34">SUM(I7:I9)</f>
         <v>1192.0268561341929</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>1379.6354742056051</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>1583.6161709189175</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>1806.6848619911621</v>
       </c>
       <c r="M10" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>2042.7800784792496</v>
       </c>
       <c r="N10" s="5">
-        <f>SUM(N7:N9)</f>
+        <f t="shared" ref="N10:T10" si="35">SUM(N7:N9)</f>
         <v>2201.259787378378</v>
       </c>
       <c r="O10" s="5">
-        <f>SUM(O7:O9)</f>
+        <f t="shared" si="35"/>
         <v>2372.8874292404616</v>
       </c>
       <c r="P10" s="5">
-        <f>SUM(P7:P9)</f>
+        <f t="shared" si="35"/>
         <v>2570.5346680048924</v>
       </c>
       <c r="Q10" s="5">
-        <f>SUM(Q7:Q9)</f>
+        <f t="shared" si="35"/>
         <v>2796.1428972122344</v>
       </c>
       <c r="R10" s="5">
-        <f>SUM(R7:R9)</f>
+        <f t="shared" si="35"/>
         <v>3052.0834355020343</v>
       </c>
       <c r="S10" s="5">
-        <f>SUM(S7:S9)</f>
+        <f t="shared" si="35"/>
         <v>3341.179705511503</v>
       </c>
       <c r="T10" s="5">
-        <f>SUM(T7:T9)</f>
+        <f t="shared" si="35"/>
         <v>3666.7398560115889</v>
       </c>
       <c r="U10" s="5">
-        <f t="shared" ref="U10" si="28">SUM(U7:U9)</f>
+        <f t="shared" ref="U10" si="36">SUM(U7:U9)</f>
         <v>4032.5999136475975</v>
       </c>
       <c r="V10" s="5">
-        <f t="shared" ref="V10" si="29">SUM(V7:V9)</f>
+        <f t="shared" ref="V10" si="37">SUM(V7:V9)</f>
         <v>4443.1779189676445</v>
       </c>
       <c r="W10" s="5">
-        <f t="shared" ref="W10" si="30">SUM(W7:W9)</f>
+        <f t="shared" ref="W10" si="38">SUM(W7:W9)</f>
         <v>4903.5398535744398</v>
       </c>
       <c r="X10" s="5">
-        <f t="shared" ref="X10" si="31">SUM(X7:X9)</f>
+        <f t="shared" ref="X10" si="39">SUM(X7:X9)</f>
         <v>5419.4785186577346</v>
       </c>
       <c r="Y10" s="5">
-        <f t="shared" ref="Y10" si="32">SUM(Y7:Y9)</f>
+        <f t="shared" ref="Y10" si="40">SUM(Y7:Y9)</f>
         <v>5970.5095031078254</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="9">
+        <v>31</v>
+      </c>
+      <c r="B12" s="8">
         <f>B10*$B$31</f>
         <v>4200</v>
       </c>
-      <c r="C12" s="10">
-        <f t="shared" ref="C12:N12" si="33">C10*$B$31</f>
+      <c r="C12" s="9">
+        <f t="shared" ref="C12:N12" si="41">C10*$B$31</f>
         <v>8337.0000000000018</v>
       </c>
-      <c r="D12" s="10">
-        <f t="shared" si="33"/>
+      <c r="D12" s="9">
+        <f t="shared" si="41"/>
         <v>12485.550000000001</v>
       </c>
-      <c r="E12" s="10">
-        <f t="shared" si="33"/>
+      <c r="E12" s="9">
+        <f t="shared" si="41"/>
         <v>16715.068650000001</v>
       </c>
-      <c r="F12" s="10">
-        <f t="shared" si="33"/>
+      <c r="F12" s="9">
+        <f t="shared" si="41"/>
         <v>21091.916790000003</v>
       </c>
-      <c r="G12" s="10">
-        <f t="shared" si="33"/>
+      <c r="G12" s="9">
+        <f t="shared" si="41"/>
         <v>25681.200953310006</v>
       </c>
-      <c r="H12" s="10">
-        <f t="shared" si="33"/>
+      <c r="H12" s="9">
+        <f t="shared" si="41"/>
         <v>30548.389042943105</v>
       </c>
-      <c r="I12" s="10">
-        <f t="shared" si="33"/>
+      <c r="I12" s="9">
+        <f t="shared" si="41"/>
         <v>35760.805684025785</v>
       </c>
-      <c r="J12" s="10">
-        <f t="shared" si="33"/>
+      <c r="J12" s="9">
+        <f t="shared" si="41"/>
         <v>41389.06422616815</v>
       </c>
-      <c r="K12" s="10">
-        <f t="shared" si="33"/>
+      <c r="K12" s="9">
+        <f t="shared" si="41"/>
         <v>47508.485127567525</v>
       </c>
-      <c r="L12" s="10">
-        <f t="shared" si="33"/>
+      <c r="L12" s="9">
+        <f t="shared" si="41"/>
         <v>54200.545859734862</v>
       </c>
-      <c r="M12" s="10">
-        <f t="shared" si="33"/>
+      <c r="M12" s="9">
+        <f t="shared" si="41"/>
         <v>61283.402354377489</v>
       </c>
-      <c r="N12" s="10">
-        <f t="shared" si="33"/>
+      <c r="N12" s="9">
+        <f t="shared" si="41"/>
         <v>66037.793621351331</v>
       </c>
-      <c r="O12" s="10">
-        <f t="shared" ref="O12:Y12" si="34">O10*$B$31</f>
+      <c r="O12" s="9">
+        <f t="shared" ref="O12:Y12" si="42">O10*$B$31</f>
         <v>71186.622877213842</v>
       </c>
-      <c r="P12" s="10">
-        <f t="shared" si="34"/>
+      <c r="P12" s="9">
+        <f t="shared" si="42"/>
         <v>77116.040040146778</v>
       </c>
-      <c r="Q12" s="10">
-        <f t="shared" si="34"/>
+      <c r="Q12" s="9">
+        <f t="shared" si="42"/>
         <v>83884.286916367026</v>
       </c>
-      <c r="R12" s="10">
-        <f t="shared" si="34"/>
+      <c r="R12" s="9">
+        <f t="shared" si="42"/>
         <v>91562.503065061028</v>
       </c>
-      <c r="S12" s="10">
-        <f t="shared" si="34"/>
+      <c r="S12" s="9">
+        <f t="shared" si="42"/>
         <v>100235.39116534509</v>
       </c>
-      <c r="T12" s="10">
-        <f t="shared" si="34"/>
+      <c r="T12" s="9">
+        <f t="shared" si="42"/>
         <v>110002.19568034766</v>
       </c>
-      <c r="U12" s="10">
-        <f t="shared" si="34"/>
+      <c r="U12" s="9">
+        <f t="shared" si="42"/>
         <v>120977.99740942793</v>
       </c>
-      <c r="V12" s="10">
-        <f t="shared" si="34"/>
+      <c r="V12" s="9">
+        <f t="shared" si="42"/>
         <v>133295.33756902933</v>
       </c>
-      <c r="W12" s="10">
-        <f t="shared" si="34"/>
+      <c r="W12" s="9">
+        <f t="shared" si="42"/>
         <v>147106.19560723318</v>
       </c>
-      <c r="X12" s="10">
-        <f t="shared" si="34"/>
+      <c r="X12" s="9">
+        <f t="shared" si="42"/>
         <v>162584.35555973204</v>
       </c>
-      <c r="Y12" s="10">
-        <f t="shared" si="34"/>
+      <c r="Y12" s="9">
+        <f t="shared" si="42"/>
         <v>179115.28509323476</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="12">
+        <v>34</v>
+      </c>
+      <c r="B14" s="11">
         <f>$B$32</f>
         <v>4000</v>
       </c>
-      <c r="C14" s="10">
-        <f t="shared" ref="C14:Y14" si="35">$B$32</f>
+      <c r="C14" s="9">
+        <f t="shared" ref="C14:Y14" si="43">$B$32</f>
         <v>4000</v>
       </c>
-      <c r="D14" s="10">
-        <f t="shared" si="35"/>
+      <c r="D14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="E14" s="10">
-        <f t="shared" si="35"/>
+      <c r="E14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="F14" s="10">
-        <f t="shared" si="35"/>
+      <c r="F14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="G14" s="10">
-        <f t="shared" si="35"/>
+      <c r="G14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="H14" s="10">
-        <f t="shared" si="35"/>
+      <c r="H14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="I14" s="10">
-        <f t="shared" si="35"/>
+      <c r="I14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="J14" s="10">
-        <f t="shared" si="35"/>
+      <c r="J14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="K14" s="10">
-        <f t="shared" si="35"/>
+      <c r="K14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="L14" s="10">
-        <f t="shared" si="35"/>
+      <c r="L14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="M14" s="10">
-        <f t="shared" si="35"/>
+      <c r="M14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="N14" s="10">
-        <f t="shared" si="35"/>
+      <c r="N14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="O14" s="10">
-        <f t="shared" si="35"/>
+      <c r="O14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="P14" s="10">
-        <f t="shared" si="35"/>
+      <c r="P14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="Q14" s="10">
-        <f t="shared" si="35"/>
+      <c r="Q14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="R14" s="10">
-        <f t="shared" si="35"/>
+      <c r="R14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="S14" s="10">
-        <f t="shared" si="35"/>
+      <c r="S14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="T14" s="10">
-        <f t="shared" si="35"/>
+      <c r="T14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="U14" s="10">
-        <f t="shared" si="35"/>
+      <c r="U14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="V14" s="10">
-        <f t="shared" si="35"/>
+      <c r="V14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="W14" s="10">
-        <f t="shared" si="35"/>
+      <c r="W14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="X14" s="10">
-        <f t="shared" si="35"/>
+      <c r="X14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
-      <c r="Y14" s="10">
-        <f t="shared" si="35"/>
+      <c r="Y14" s="9">
+        <f t="shared" si="43"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="10">
+        <v>32</v>
+      </c>
+      <c r="B15" s="9">
         <f>$B$33</f>
         <v>29000</v>
       </c>
-      <c r="C15" s="10">
-        <f t="shared" ref="C15:Y15" si="36">$B$33</f>
+      <c r="C15" s="9">
+        <f t="shared" ref="C15:Y15" si="44">$B$33</f>
         <v>29000</v>
       </c>
-      <c r="D15" s="10">
-        <f t="shared" si="36"/>
+      <c r="D15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="E15" s="10">
-        <f t="shared" si="36"/>
+      <c r="E15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="F15" s="10">
-        <f t="shared" si="36"/>
+      <c r="F15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="G15" s="10">
-        <f t="shared" si="36"/>
+      <c r="G15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="H15" s="10">
-        <f t="shared" si="36"/>
+      <c r="H15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="I15" s="10">
-        <f t="shared" si="36"/>
+      <c r="I15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="J15" s="10">
-        <f t="shared" si="36"/>
+      <c r="J15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="K15" s="10">
-        <f t="shared" si="36"/>
+      <c r="K15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="L15" s="10">
-        <f t="shared" si="36"/>
+      <c r="L15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="M15" s="10">
-        <f t="shared" si="36"/>
+      <c r="M15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="N15" s="10">
-        <f t="shared" si="36"/>
+      <c r="N15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="O15" s="10">
-        <f t="shared" si="36"/>
+      <c r="O15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="P15" s="10">
-        <f t="shared" si="36"/>
+      <c r="P15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="Q15" s="10">
-        <f t="shared" si="36"/>
+      <c r="Q15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="R15" s="10">
-        <f t="shared" si="36"/>
+      <c r="R15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="S15" s="10">
-        <f t="shared" si="36"/>
+      <c r="S15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="T15" s="10">
-        <f t="shared" si="36"/>
+      <c r="T15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="U15" s="10">
-        <f t="shared" si="36"/>
+      <c r="U15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="V15" s="10">
-        <f t="shared" si="36"/>
+      <c r="V15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="W15" s="10">
-        <f t="shared" si="36"/>
+      <c r="W15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="X15" s="10">
-        <f t="shared" si="36"/>
+      <c r="X15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
-      <c r="Y15" s="10">
-        <f t="shared" si="36"/>
+      <c r="Y15" s="9">
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="9">
+        <v>8</v>
+      </c>
+      <c r="B16" s="8">
         <f>SUM(B14:B15)</f>
         <v>33000</v>
       </c>
-      <c r="C16" s="9">
-        <f t="shared" ref="C16:M16" si="37">SUM(C14:C15)</f>
+      <c r="C16" s="8">
+        <f t="shared" ref="C16:M16" si="45">SUM(C14:C15)</f>
         <v>33000</v>
       </c>
-      <c r="D16" s="9">
-        <f t="shared" si="37"/>
+      <c r="D16" s="8">
+        <f t="shared" si="45"/>
         <v>33000</v>
       </c>
-      <c r="E16" s="9">
-        <f t="shared" si="37"/>
+      <c r="E16" s="8">
+        <f t="shared" si="45"/>
         <v>33000</v>
       </c>
-      <c r="F16" s="9">
-        <f t="shared" si="37"/>
+      <c r="F16" s="8">
+        <f t="shared" si="45"/>
         <v>33000</v>
       </c>
-      <c r="G16" s="9">
-        <f t="shared" si="37"/>
+      <c r="G16" s="8">
+        <f t="shared" si="45"/>
         <v>33000</v>
       </c>
-      <c r="H16" s="9">
-        <f t="shared" si="37"/>
+      <c r="H16" s="8">
+        <f t="shared" si="45"/>
         <v>33000</v>
       </c>
-      <c r="I16" s="9">
-        <f t="shared" si="37"/>
+      <c r="I16" s="8">
+        <f t="shared" si="45"/>
         <v>33000</v>
       </c>
-      <c r="J16" s="9">
-        <f t="shared" si="37"/>
+      <c r="J16" s="8">
+        <f t="shared" si="45"/>
         <v>33000</v>
       </c>
-      <c r="K16" s="9">
-        <f t="shared" si="37"/>
+      <c r="K16" s="8">
+        <f t="shared" si="45"/>
         <v>33000</v>
       </c>
-      <c r="L16" s="9">
-        <f t="shared" si="37"/>
+      <c r="L16" s="8">
+        <f t="shared" si="45"/>
         <v>33000</v>
       </c>
-      <c r="M16" s="9">
-        <f t="shared" si="37"/>
+      <c r="M16" s="8">
+        <f t="shared" si="45"/>
         <v>33000</v>
       </c>
-      <c r="N16" s="9">
-        <f t="shared" ref="N16:O16" si="38">SUM(N14:N15)</f>
+      <c r="N16" s="8">
+        <f t="shared" ref="N16:O16" si="46">SUM(N14:N15)</f>
         <v>33000</v>
       </c>
-      <c r="O16" s="9">
-        <f t="shared" si="38"/>
+      <c r="O16" s="8">
+        <f t="shared" si="46"/>
         <v>33000</v>
       </c>
-      <c r="P16" s="9">
-        <f t="shared" ref="P16" si="39">SUM(P14:P15)</f>
+      <c r="P16" s="8">
+        <f t="shared" ref="P16" si="47">SUM(P14:P15)</f>
         <v>33000</v>
       </c>
-      <c r="Q16" s="9">
-        <f t="shared" ref="Q16" si="40">SUM(Q14:Q15)</f>
+      <c r="Q16" s="8">
+        <f t="shared" ref="Q16" si="48">SUM(Q14:Q15)</f>
         <v>33000</v>
       </c>
-      <c r="R16" s="9">
-        <f t="shared" ref="R16" si="41">SUM(R14:R15)</f>
+      <c r="R16" s="8">
+        <f t="shared" ref="R16" si="49">SUM(R14:R15)</f>
         <v>33000</v>
       </c>
-      <c r="S16" s="9">
-        <f t="shared" ref="S16" si="42">SUM(S14:S15)</f>
+      <c r="S16" s="8">
+        <f t="shared" ref="S16" si="50">SUM(S14:S15)</f>
         <v>33000</v>
       </c>
-      <c r="T16" s="9">
-        <f t="shared" ref="T16" si="43">SUM(T14:T15)</f>
+      <c r="T16" s="8">
+        <f t="shared" ref="T16" si="51">SUM(T14:T15)</f>
         <v>33000</v>
       </c>
-      <c r="U16" s="9">
-        <f t="shared" ref="U16" si="44">SUM(U14:U15)</f>
+      <c r="U16" s="8">
+        <f t="shared" ref="U16" si="52">SUM(U14:U15)</f>
         <v>33000</v>
       </c>
-      <c r="V16" s="9">
-        <f t="shared" ref="V16" si="45">SUM(V14:V15)</f>
+      <c r="V16" s="8">
+        <f t="shared" ref="V16" si="53">SUM(V14:V15)</f>
         <v>33000</v>
       </c>
-      <c r="W16" s="9">
-        <f t="shared" ref="W16" si="46">SUM(W14:W15)</f>
+      <c r="W16" s="8">
+        <f t="shared" ref="W16" si="54">SUM(W14:W15)</f>
         <v>33000</v>
       </c>
-      <c r="X16" s="9">
-        <f t="shared" ref="X16" si="47">SUM(X14:X15)</f>
+      <c r="X16" s="8">
+        <f t="shared" ref="X16" si="55">SUM(X14:X15)</f>
         <v>33000</v>
       </c>
-      <c r="Y16" s="9">
-        <f t="shared" ref="Y16" si="48">SUM(Y14:Y15)</f>
+      <c r="Y16" s="8">
+        <f t="shared" ref="Y16" si="56">SUM(Y14:Y15)</f>
         <v>33000</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="9">
+        <v>35</v>
+      </c>
+      <c r="B18" s="8">
         <f>B12-B16</f>
         <v>-28800</v>
       </c>
-      <c r="C18" s="9">
-        <f t="shared" ref="C18:N18" si="49">C12-C16</f>
+      <c r="C18" s="8">
+        <f t="shared" ref="C18:N18" si="57">C12-C16</f>
         <v>-24663</v>
       </c>
-      <c r="D18" s="9">
-        <f t="shared" si="49"/>
+      <c r="D18" s="8">
+        <f t="shared" si="57"/>
         <v>-20514.449999999997</v>
       </c>
-      <c r="E18" s="9">
-        <f t="shared" si="49"/>
+      <c r="E18" s="8">
+        <f t="shared" si="57"/>
         <v>-16284.931349999999</v>
       </c>
-      <c r="F18" s="9">
-        <f t="shared" si="49"/>
+      <c r="F18" s="8">
+        <f t="shared" si="57"/>
         <v>-11908.083209999997</v>
       </c>
-      <c r="G18" s="9">
-        <f t="shared" si="49"/>
+      <c r="G18" s="8">
+        <f t="shared" si="57"/>
         <v>-7318.7990466899937</v>
       </c>
-      <c r="H18" s="9">
-        <f t="shared" si="49"/>
+      <c r="H18" s="8">
+        <f t="shared" si="57"/>
         <v>-2451.6109570568951</v>
       </c>
-      <c r="I18" s="9">
-        <f t="shared" si="49"/>
+      <c r="I18" s="8">
+        <f t="shared" si="57"/>
         <v>2760.805684025785</v>
       </c>
-      <c r="J18" s="9">
-        <f t="shared" si="49"/>
+      <c r="J18" s="8">
+        <f t="shared" si="57"/>
         <v>8389.0642261681496</v>
       </c>
-      <c r="K18" s="9">
-        <f t="shared" si="49"/>
+      <c r="K18" s="8">
+        <f t="shared" si="57"/>
         <v>14508.485127567525</v>
       </c>
-      <c r="L18" s="9">
-        <f t="shared" si="49"/>
+      <c r="L18" s="8">
+        <f t="shared" si="57"/>
         <v>21200.545859734862</v>
       </c>
-      <c r="M18" s="9">
-        <f t="shared" si="49"/>
+      <c r="M18" s="8">
+        <f t="shared" si="57"/>
         <v>28283.402354377489</v>
       </c>
-      <c r="N18" s="9">
-        <f t="shared" si="49"/>
+      <c r="N18" s="8">
+        <f t="shared" si="57"/>
         <v>33037.793621351331</v>
       </c>
-      <c r="O18" s="9">
-        <f t="shared" ref="O18:Y18" si="50">O12-O16</f>
+      <c r="O18" s="8">
+        <f t="shared" ref="O18:Y18" si="58">O12-O16</f>
         <v>38186.622877213842</v>
       </c>
-      <c r="P18" s="9">
-        <f t="shared" si="50"/>
+      <c r="P18" s="8">
+        <f t="shared" si="58"/>
         <v>44116.040040146778</v>
       </c>
-      <c r="Q18" s="9">
-        <f t="shared" si="50"/>
+      <c r="Q18" s="8">
+        <f t="shared" si="58"/>
         <v>50884.286916367026</v>
       </c>
-      <c r="R18" s="9">
-        <f t="shared" si="50"/>
+      <c r="R18" s="8">
+        <f t="shared" si="58"/>
         <v>58562.503065061028</v>
       </c>
-      <c r="S18" s="9">
-        <f t="shared" si="50"/>
+      <c r="S18" s="8">
+        <f t="shared" si="58"/>
         <v>67235.391165345092</v>
       </c>
-      <c r="T18" s="9">
-        <f t="shared" si="50"/>
+      <c r="T18" s="8">
+        <f t="shared" si="58"/>
         <v>77002.195680347664</v>
       </c>
-      <c r="U18" s="9">
-        <f t="shared" si="50"/>
+      <c r="U18" s="8">
+        <f t="shared" si="58"/>
         <v>87977.997409427931</v>
       </c>
-      <c r="V18" s="9">
-        <f t="shared" si="50"/>
+      <c r="V18" s="8">
+        <f t="shared" si="58"/>
         <v>100295.33756902933</v>
       </c>
-      <c r="W18" s="9">
-        <f t="shared" si="50"/>
+      <c r="W18" s="8">
+        <f t="shared" si="58"/>
         <v>114106.19560723318</v>
       </c>
-      <c r="X18" s="9">
-        <f t="shared" si="50"/>
+      <c r="X18" s="8">
+        <f t="shared" si="58"/>
         <v>129584.35555973204</v>
       </c>
-      <c r="Y18" s="9">
-        <f t="shared" si="50"/>
+      <c r="Y18" s="8">
+        <f t="shared" si="58"/>
         <v>146115.28509323476</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6">
         <f>$B$34</f>
@@ -3878,43 +3710,43 @@
         <v>71200</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" ref="D19:M19" si="51">C19+C18</f>
+        <f t="shared" ref="D19:M19" si="59">C19+C18</f>
         <v>46537</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>26022.550000000003</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>9737.618650000004</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-2170.4645599999931</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-9489.2636066899868</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-11940.874563746882</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-9180.0688797210969</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-791.00465355294727</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>13717.480474014577</v>
       </c>
       <c r="M19" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>34918.02633374944</v>
       </c>
       <c r="N19" s="6">
@@ -3926,47 +3758,47 @@
         <v>96239.222309478268</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" ref="P19:Y19" si="52">O19+O18</f>
+        <f t="shared" ref="P19:Y19" si="60">O19+O18</f>
         <v>134425.84518669211</v>
       </c>
       <c r="Q19" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>178541.88522683887</v>
       </c>
       <c r="R19" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>229426.17214320588</v>
       </c>
       <c r="S19" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>287988.67520826694</v>
       </c>
       <c r="T19" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>355224.06637361203</v>
       </c>
       <c r="U19" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>432226.26205395971</v>
       </c>
       <c r="V19" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>520204.25946338766</v>
       </c>
       <c r="W19" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>620499.59703241696</v>
       </c>
       <c r="X19" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>734605.79263965017</v>
       </c>
       <c r="Y19" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>864190.14819938224</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3992,310 +3824,310 @@
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="6">
         <f>B16/B10</f>
         <v>235.71428571428572</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" ref="C21:N21" si="53">C16/C10</f>
+        <f t="shared" ref="C21:N21" si="61">C16/C10</f>
         <v>118.74775098956458</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>79.291661160301302</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>59.227994854810234</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>46.937412557467226</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>38.549599054961668</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>32.407600892090151</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>27.683940030529826</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>23.919361756772325</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>20.838382813968895</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>18.26549870110188</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>16.154455561641708</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>14.991415456374563</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" ref="O21:Y21" si="54">O16/O10</f>
+        <f t="shared" ref="O21:Y21" si="62">O16/O10</f>
         <v>13.907107262379903</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>12.837796124964456</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>11.80197193530457</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>10.812286327477763</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>9.8767510007211694</v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>8.999820357011906</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>8.1833062308803637</v>
       </c>
       <c r="V21" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>7.4271164922577366</v>
       </c>
       <c r="W21" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>6.7298321183103305</v>
       </c>
       <c r="X21" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>6.0891467484169031</v>
       </c>
       <c r="Y21" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>5.5271664809883534</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="6">
         <f>B14/B9</f>
         <v>28.571428571428573</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" ref="C22:Y22" si="55">C14/C9</f>
+        <f t="shared" ref="C22:Y22" si="63">C14/C9</f>
         <v>26.455026455026452</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>24.495394865765235</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>22.680921172004844</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>21.000852937041522</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>19.445234200964371</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>18.004846482374415</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>16.67115415034668</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>15.43625384291359</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>14.292827632327398</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>13.234099659562405</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>12.253795981076301</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>11.346107389885463</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>10.505654990634687</v>
       </c>
       <c r="P22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>9.7274583246617485</v>
       </c>
       <c r="Q22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>9.0069058561682844</v>
       </c>
       <c r="R22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>8.3397276446002628</v>
       </c>
       <c r="S22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>7.7219700412965393</v>
       </c>
       <c r="T22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>7.1499722604597586</v>
       </c>
       <c r="U22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>6.6203446856108865</v>
       </c>
       <c r="V22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>6.1299487829730426</v>
       </c>
       <c r="W22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>5.6758785027528171</v>
       </c>
       <c r="X22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>5.2554430581044596</v>
       </c>
       <c r="Y22" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>4.8661509797263509</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
-      <c r="A23" s="11" t="s">
-        <v>42</v>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="6">
         <f>$B$31*B5</f>
         <v>300</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" ref="C23:N23" si="56">$B$31*C5</f>
+        <f t="shared" ref="C23:N23" si="64">$B$31*C5</f>
         <v>315.78947368421052</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>333.33333333333331</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>352.94117647058823</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>375</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>400</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>428.57142857142856</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>461.53846153846149</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>500.00000000000006</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>545.4545454545455</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>600</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>600</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>315.78947368421052</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" ref="O23:Y23" si="57">$B$31*O5</f>
+        <f t="shared" ref="O23:Y23" si="65">$B$31*O5</f>
         <v>315.78947368421052</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>333.33333333333331</v>
       </c>
       <c r="Q23" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>352.94117647058823</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>375</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>400</v>
       </c>
       <c r="T23" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>428.57142857142856</v>
       </c>
       <c r="U23" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>461.53846153846149</v>
       </c>
       <c r="V23" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>500.00000000000006</v>
       </c>
       <c r="W23" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>545.4545454545455</v>
       </c>
       <c r="X23" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>600</v>
       </c>
       <c r="Y23" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -4309,7 +4141,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -4323,7 +4155,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -4337,7 +4169,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -4351,54 +4183,54 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="29" spans="1:25" ht="25">
+    <row r="29" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>28</v>
-      </c>
-      <c r="B30" s="8">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25">
-      <c r="A31" t="s">
-        <v>29</v>
       </c>
       <c r="B31" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="6">
         <v>4000</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>29000</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="6">
         <v>100000</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="13" t="s">
-        <v>43</v>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4408,10 +4240,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>